--- a/report_new.xlsx
+++ b/report_new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>Активность пришедшей на модуль</t>
   </si>
@@ -70,22 +70,19 @@
     <t>Остаток обьем</t>
   </si>
   <si>
-    <t>283230</t>
-  </si>
-  <si>
-    <t>ФЭТ, 18F</t>
-  </si>
-  <si>
-    <t>002F2B180223</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>07:19:09</t>
-  </si>
-  <si>
-    <t>002F2B</t>
+    <t>ФДГ, 18F</t>
+  </si>
+  <si>
+    <t>155F1B100423</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>12:38:00</t>
+  </si>
+  <si>
+    <t>155F1B</t>
   </si>
   <si>
     <t>KK1</t>
@@ -97,49 +94,16 @@
     <t>OLD2</t>
   </si>
   <si>
-    <t>KK3</t>
-  </si>
-  <si>
-    <t>архив</t>
-  </si>
-  <si>
-    <t>KK2</t>
-  </si>
-  <si>
-    <t>2328,00</t>
-  </si>
-  <si>
-    <t>29010,00</t>
-  </si>
-  <si>
-    <t>28370,00</t>
-  </si>
-  <si>
-    <t>2033,00</t>
-  </si>
-  <si>
-    <t>3727,00</t>
-  </si>
-  <si>
-    <t>4005,00</t>
-  </si>
-  <si>
-    <t>01,12</t>
-  </si>
-  <si>
-    <t>014,27</t>
-  </si>
-  <si>
-    <t>014,30</t>
-  </si>
-  <si>
-    <t>01,05</t>
-  </si>
-  <si>
-    <t>01,97</t>
-  </si>
-  <si>
-    <t>02,17</t>
+    <t>OLD3</t>
+  </si>
+  <si>
+    <t>OLD4</t>
+  </si>
+  <si>
+    <t>OLD5</t>
+  </si>
+  <si>
+    <t>ARHIV</t>
   </si>
   <si>
     <t>Лаборатория контроля качества</t>
@@ -148,31 +112,31 @@
     <t>Отдление лучевой диагностики ООО "ПЭТ-Технолоджи Балашиха"</t>
   </si>
   <si>
-    <t>ООО «РМС</t>
-  </si>
-  <si>
-    <t>07:29:07</t>
-  </si>
-  <si>
-    <t>07:33:11</t>
-  </si>
-  <si>
-    <t>07:36:58</t>
-  </si>
-  <si>
-    <t>07:41:04</t>
-  </si>
-  <si>
-    <t>07:44:16</t>
-  </si>
-  <si>
-    <t>07:48:04</t>
-  </si>
-  <si>
-    <t>№002 от 18.02.2023</t>
-  </si>
-  <si>
-    <t>№002 от 17.02.2023</t>
+    <t>12:42:28</t>
+  </si>
+  <si>
+    <t>12:43:53</t>
+  </si>
+  <si>
+    <t>12:45:44</t>
+  </si>
+  <si>
+    <t>12:47:49</t>
+  </si>
+  <si>
+    <t>12:49:49</t>
+  </si>
+  <si>
+    <t>12:51:44</t>
+  </si>
+  <si>
+    <t>12:53:03</t>
+  </si>
+  <si>
+    <t>№155 от 10.04.2023</t>
+  </si>
+  <si>
+    <t>№155 от 07.04.2023</t>
   </si>
 </sst>
 </file>
@@ -530,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -596,53 +560,53 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>522253</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2">
+        <v>263200</v>
+      </c>
+      <c r="G2">
+        <v>59.68</v>
+      </c>
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="F2">
-        <v>80770</v>
-      </c>
-      <c r="G2">
-        <v>36.34</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="K2">
+        <v>3926</v>
+      </c>
+      <c r="L2">
+        <v>0.98</v>
+      </c>
+      <c r="M2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>42</v>
-      </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="R2">
-        <v>11297</v>
+        <v>408</v>
       </c>
       <c r="S2">
-        <v>1.460000000000001</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -650,22 +614,22 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3">
+        <v>14960</v>
+      </c>
+      <c r="L3">
+        <v>3.75</v>
+      </c>
+      <c r="M3" t="s">
         <v>31</v>
       </c>
-      <c r="L3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" t="s">
-        <v>43</v>
-      </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -673,22 +637,22 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="K4">
+        <v>37710</v>
+      </c>
+      <c r="L4">
+        <v>9.050000000000001</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -696,22 +660,22 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" t="s">
-        <v>39</v>
+        <v>26</v>
+      </c>
+      <c r="K5">
+        <v>57870</v>
+      </c>
+      <c r="L5">
+        <v>13.96</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N5" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -719,19 +683,22 @@
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6">
+        <v>57260</v>
+      </c>
+      <c r="L6">
+        <v>13.97</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" t="s">
         <v>40</v>
-      </c>
-      <c r="M6" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -739,22 +706,45 @@
         <v>5</v>
       </c>
       <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7">
+        <v>56600</v>
+      </c>
+      <c r="L7">
+        <v>14</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
         <v>29</v>
       </c>
-      <c r="K7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" t="s">
-        <v>51</v>
+      <c r="K8">
+        <v>8381</v>
+      </c>
+      <c r="L8">
+        <v>2.12</v>
+      </c>
+      <c r="M8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
